--- a/state_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
+++ b/state_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2004 - 2008</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2005 - 2009</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2006 - 2010</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2007 - 2011</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2008 - 2012</t>
@@ -3088,7 +3108,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2009 - 2013</t>
@@ -3524,7 +3548,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>2010 - 2014</t>
@@ -3960,7 +3988,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>2011 - 2015</t>
@@ -4396,7 +4428,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>2012 - 2016</t>
@@ -4832,7 +4868,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -5268,7 +5308,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -5704,7 +5748,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -6140,7 +6188,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -6576,7 +6628,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -7012,7 +7068,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
+++ b/state_results/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,13 +639,13 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>197.5</v>
       </c>
       <c r="G2">
-        <v>771.024368605751</v>
+        <v>771.027855262677</v>
       </c>
       <c r="H2">
         <v>24200</v>
@@ -672,19 +678,19 @@
         <v>5509152</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -701,13 +707,13 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>197.5</v>
       </c>
       <c r="G3">
-        <v>771.024368605751</v>
+        <v>771.027855262677</v>
       </c>
       <c r="H3">
         <v>24200</v>
@@ -740,19 +746,19 @@
         <v>5509152</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -769,13 +775,13 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>197.5</v>
       </c>
       <c r="G4">
-        <v>771.024368605751</v>
+        <v>771.027855262677</v>
       </c>
       <c r="H4">
         <v>24200</v>
@@ -808,19 +814,19 @@
         <v>5509152</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -837,13 +843,13 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>197.5</v>
       </c>
       <c r="G5">
-        <v>771.024368605751</v>
+        <v>771.027855262677</v>
       </c>
       <c r="H5">
         <v>24200</v>
@@ -876,19 +882,19 @@
         <v>5509152</v>
       </c>
       <c r="R5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -905,13 +911,13 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>197.5</v>
       </c>
       <c r="G6">
-        <v>771.024368605751</v>
+        <v>771.027855262677</v>
       </c>
       <c r="H6">
         <v>24200</v>
@@ -944,19 +950,19 @@
         <v>5509152</v>
       </c>
       <c r="R6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -973,13 +979,13 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>201.5</v>
       </c>
       <c r="G7">
-        <v>877.563525541483</v>
+        <v>877.566339334792</v>
       </c>
       <c r="H7">
         <v>24200</v>
@@ -1012,19 +1018,19 @@
         <v>5509152</v>
       </c>
       <c r="R7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1041,13 +1047,13 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>201.5</v>
       </c>
       <c r="G8">
-        <v>877.563525541483</v>
+        <v>877.566339334792</v>
       </c>
       <c r="H8">
         <v>24200</v>
@@ -1080,19 +1086,19 @@
         <v>5509152</v>
       </c>
       <c r="R8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1109,13 +1115,13 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>201.5</v>
       </c>
       <c r="G9">
-        <v>877.563525541483</v>
+        <v>877.566339334792</v>
       </c>
       <c r="H9">
         <v>24200</v>
@@ -1148,19 +1154,19 @@
         <v>5509152</v>
       </c>
       <c r="R9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1177,13 +1183,13 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>201.5</v>
       </c>
       <c r="G10">
-        <v>877.563525541483</v>
+        <v>877.566339334792</v>
       </c>
       <c r="H10">
         <v>24200</v>
@@ -1216,19 +1222,19 @@
         <v>5509152</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1245,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>201.5</v>
       </c>
       <c r="G11">
-        <v>877.563525541483</v>
+        <v>877.566339334792</v>
       </c>
       <c r="H11">
         <v>24200</v>
@@ -1284,19 +1290,19 @@
         <v>5509152</v>
       </c>
       <c r="R11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1313,13 +1319,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>215</v>
       </c>
       <c r="G12">
-        <v>899.713891096658</v>
+        <v>899.716780938435</v>
       </c>
       <c r="H12">
         <v>24200</v>
@@ -1352,19 +1358,19 @@
         <v>5509152</v>
       </c>
       <c r="R12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1381,13 +1387,13 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>215</v>
       </c>
       <c r="G13">
-        <v>899.713891096658</v>
+        <v>899.716780938435</v>
       </c>
       <c r="H13">
         <v>24200</v>
@@ -1420,19 +1426,19 @@
         <v>5509152</v>
       </c>
       <c r="R13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1449,13 +1455,13 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>215</v>
       </c>
       <c r="G14">
-        <v>899.713891096658</v>
+        <v>899.716780938435</v>
       </c>
       <c r="H14">
         <v>24200</v>
@@ -1488,19 +1494,19 @@
         <v>5509152</v>
       </c>
       <c r="R14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1517,13 +1523,13 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>215</v>
       </c>
       <c r="G15">
-        <v>899.713891096658</v>
+        <v>899.716780938435</v>
       </c>
       <c r="H15">
         <v>24200</v>
@@ -1556,19 +1562,19 @@
         <v>5509152</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1585,13 +1591,13 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>215</v>
       </c>
       <c r="G16">
-        <v>899.713891096658</v>
+        <v>899.716780938435</v>
       </c>
       <c r="H16">
         <v>24200</v>
@@ -1624,19 +1630,19 @@
         <v>5509152</v>
       </c>
       <c r="R16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1653,13 +1659,13 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>202</v>
       </c>
       <c r="G17">
-        <v>770.999774327928</v>
+        <v>771.001674082831</v>
       </c>
       <c r="H17">
         <v>21426</v>
@@ -1692,19 +1698,19 @@
         <v>5509152</v>
       </c>
       <c r="R17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1721,13 +1727,13 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>202</v>
       </c>
       <c r="G18">
-        <v>770.999774327928</v>
+        <v>771.001674082831</v>
       </c>
       <c r="H18">
         <v>21426</v>
@@ -1760,19 +1766,19 @@
         <v>5509152</v>
       </c>
       <c r="R18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1789,13 +1795,13 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>202</v>
       </c>
       <c r="G19">
-        <v>770.999774327928</v>
+        <v>771.001674082831</v>
       </c>
       <c r="H19">
         <v>21426</v>
@@ -1828,19 +1834,19 @@
         <v>5509152</v>
       </c>
       <c r="R19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1857,13 +1863,13 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>202</v>
       </c>
       <c r="G20">
-        <v>770.999774327928</v>
+        <v>771.001674082831</v>
       </c>
       <c r="H20">
         <v>21426</v>
@@ -1896,19 +1902,19 @@
         <v>5509152</v>
       </c>
       <c r="R20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1925,13 +1931,13 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>202</v>
       </c>
       <c r="G21">
-        <v>770.999774327928</v>
+        <v>771.001674082831</v>
       </c>
       <c r="H21">
         <v>21426</v>
@@ -1964,19 +1970,19 @@
         <v>5509152</v>
       </c>
       <c r="R21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1993,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>210</v>
@@ -2032,19 +2038,19 @@
         <v>5509152</v>
       </c>
       <c r="R22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2061,7 +2067,7 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>210</v>
@@ -2100,19 +2106,19 @@
         <v>5509152</v>
       </c>
       <c r="R23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2129,7 +2135,7 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>210</v>
@@ -2168,19 +2174,19 @@
         <v>5509152</v>
       </c>
       <c r="R24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2197,7 +2203,7 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>210</v>
@@ -2236,19 +2242,19 @@
         <v>5509152</v>
       </c>
       <c r="R25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2265,7 +2271,7 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>210</v>
@@ -2304,19 +2310,19 @@
         <v>5509152</v>
       </c>
       <c r="R26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2333,7 +2339,7 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>173</v>
@@ -2372,19 +2378,19 @@
         <v>5509152</v>
       </c>
       <c r="R27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2401,7 +2407,7 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>173</v>
@@ -2440,19 +2446,19 @@
         <v>5509152</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2469,7 +2475,7 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F29">
         <v>173</v>
@@ -2508,19 +2514,19 @@
         <v>5509152</v>
       </c>
       <c r="R29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2537,7 +2543,7 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>173</v>
@@ -2576,19 +2582,19 @@
         <v>5509152</v>
       </c>
       <c r="R30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2605,7 +2611,7 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>173</v>
@@ -2644,19 +2650,19 @@
         <v>5509152</v>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2673,16 +2679,16 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <v>138</v>
       </c>
       <c r="G32">
-        <v>504.501468555744</v>
+        <v>501.020175213165</v>
       </c>
       <c r="H32">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I32">
         <v>1994.4</v>
@@ -2712,19 +2718,19 @@
         <v>5509152</v>
       </c>
       <c r="R32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2741,16 +2747,16 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>138</v>
       </c>
       <c r="G33">
-        <v>504.501468555744</v>
+        <v>501.020175213165</v>
       </c>
       <c r="H33">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I33">
         <v>1994.4</v>
@@ -2780,19 +2786,19 @@
         <v>5509152</v>
       </c>
       <c r="R33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2809,16 +2815,16 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>138</v>
       </c>
       <c r="G34">
-        <v>504.501468555744</v>
+        <v>501.020175213165</v>
       </c>
       <c r="H34">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I34">
         <v>1994.4</v>
@@ -2848,19 +2854,19 @@
         <v>5509152</v>
       </c>
       <c r="R34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2877,16 +2883,16 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>138</v>
       </c>
       <c r="G35">
-        <v>504.501468555744</v>
+        <v>501.020175213165</v>
       </c>
       <c r="H35">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I35">
         <v>1994.4</v>
@@ -2916,19 +2922,19 @@
         <v>5509152</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2945,16 +2951,16 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36">
         <v>138</v>
       </c>
       <c r="G36">
-        <v>504.501468555744</v>
+        <v>501.020175213165</v>
       </c>
       <c r="H36">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I36">
         <v>1994.4</v>
@@ -2984,19 +2990,19 @@
         <v>5509152</v>
       </c>
       <c r="R36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3013,16 +3019,16 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F37">
         <v>120</v>
       </c>
       <c r="G37">
-        <v>453.208390427394</v>
+        <v>449.667074785806</v>
       </c>
       <c r="H37">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I37">
         <v>1915.2</v>
@@ -3052,19 +3058,19 @@
         <v>5509152</v>
       </c>
       <c r="R37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3081,16 +3087,16 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>120</v>
       </c>
       <c r="G38">
-        <v>453.208390427394</v>
+        <v>449.667074785806</v>
       </c>
       <c r="H38">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I38">
         <v>1915.2</v>
@@ -3120,19 +3126,19 @@
         <v>5509152</v>
       </c>
       <c r="R38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3149,16 +3155,16 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <v>120</v>
       </c>
       <c r="G39">
-        <v>453.208390427394</v>
+        <v>449.667074785806</v>
       </c>
       <c r="H39">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I39">
         <v>1915.2</v>
@@ -3188,19 +3194,19 @@
         <v>5509152</v>
       </c>
       <c r="R39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3217,16 +3223,16 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40">
         <v>120</v>
       </c>
       <c r="G40">
-        <v>453.208390427394</v>
+        <v>449.667074785806</v>
       </c>
       <c r="H40">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I40">
         <v>1915.2</v>
@@ -3256,19 +3262,19 @@
         <v>5509152</v>
       </c>
       <c r="R40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3285,16 +3291,16 @@
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41">
         <v>120</v>
       </c>
       <c r="G41">
-        <v>453.208390427394</v>
+        <v>449.667074785806</v>
       </c>
       <c r="H41">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I41">
         <v>1915.2</v>
@@ -3324,19 +3330,19 @@
         <v>5509152</v>
       </c>
       <c r="R41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3353,16 +3359,16 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <v>110</v>
       </c>
       <c r="G42">
-        <v>328.90585469198</v>
+        <v>325.333745001334</v>
       </c>
       <c r="H42">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I42">
         <v>1450</v>
@@ -3392,19 +3398,19 @@
         <v>5509152</v>
       </c>
       <c r="R42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3421,16 +3427,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F43">
         <v>110</v>
       </c>
       <c r="G43">
-        <v>328.90585469198</v>
+        <v>325.333745001334</v>
       </c>
       <c r="H43">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I43">
         <v>1450</v>
@@ -3460,19 +3466,19 @@
         <v>5509152</v>
       </c>
       <c r="R43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3489,16 +3495,16 @@
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44">
         <v>110</v>
       </c>
       <c r="G44">
-        <v>328.90585469198</v>
+        <v>325.333745001334</v>
       </c>
       <c r="H44">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I44">
         <v>1450</v>
@@ -3528,19 +3534,19 @@
         <v>5509152</v>
       </c>
       <c r="R44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3557,16 +3563,16 @@
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>110</v>
       </c>
       <c r="G45">
-        <v>328.90585469198</v>
+        <v>325.333745001334</v>
       </c>
       <c r="H45">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I45">
         <v>1450</v>
@@ -3596,19 +3602,19 @@
         <v>5509152</v>
       </c>
       <c r="R45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3625,16 +3631,16 @@
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46">
         <v>110</v>
       </c>
       <c r="G46">
-        <v>328.90585469198</v>
+        <v>325.333745001334</v>
       </c>
       <c r="H46">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I46">
         <v>1450</v>
@@ -3664,19 +3670,19 @@
         <v>5509152</v>
       </c>
       <c r="R46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3693,16 +3699,16 @@
         <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47">
         <v>120</v>
       </c>
       <c r="G47">
-        <v>346.8173095577</v>
+        <v>343.213865571521</v>
       </c>
       <c r="H47">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I47">
         <v>1230</v>
@@ -3732,19 +3738,19 @@
         <v>5509152</v>
       </c>
       <c r="R47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3761,16 +3767,16 @@
         <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48">
         <v>120</v>
       </c>
       <c r="G48">
-        <v>346.8173095577</v>
+        <v>343.213865571521</v>
       </c>
       <c r="H48">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I48">
         <v>1230</v>
@@ -3800,19 +3806,19 @@
         <v>5509152</v>
       </c>
       <c r="R48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3829,16 +3835,16 @@
         <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49">
         <v>120</v>
       </c>
       <c r="G49">
-        <v>346.8173095577</v>
+        <v>343.213865571521</v>
       </c>
       <c r="H49">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I49">
         <v>1230</v>
@@ -3868,19 +3874,19 @@
         <v>5509152</v>
       </c>
       <c r="R49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3897,16 +3903,16 @@
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50">
         <v>120</v>
       </c>
       <c r="G50">
-        <v>346.8173095577</v>
+        <v>343.213865571521</v>
       </c>
       <c r="H50">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I50">
         <v>1230</v>
@@ -3936,19 +3942,19 @@
         <v>5509152</v>
       </c>
       <c r="R50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3965,16 +3971,16 @@
         <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51">
         <v>120</v>
       </c>
       <c r="G51">
-        <v>346.8173095577</v>
+        <v>343.213865571521</v>
       </c>
       <c r="H51">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I51">
         <v>1230</v>
@@ -4004,19 +4010,19 @@
         <v>5509152</v>
       </c>
       <c r="R51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4033,16 +4039,16 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F52">
         <v>130</v>
       </c>
       <c r="G52">
-        <v>438.328834628161</v>
+        <v>431.225976757078</v>
       </c>
       <c r="H52">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I52">
         <v>1900</v>
@@ -4072,19 +4078,19 @@
         <v>5509152</v>
       </c>
       <c r="R52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4101,16 +4107,16 @@
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <v>130</v>
       </c>
       <c r="G53">
-        <v>438.328834628161</v>
+        <v>431.225976757078</v>
       </c>
       <c r="H53">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I53">
         <v>1900</v>
@@ -4140,19 +4146,19 @@
         <v>5509152</v>
       </c>
       <c r="R53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4169,16 +4175,16 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>130</v>
       </c>
       <c r="G54">
-        <v>438.328834628161</v>
+        <v>431.225976757078</v>
       </c>
       <c r="H54">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I54">
         <v>1900</v>
@@ -4208,19 +4214,19 @@
         <v>5509152</v>
       </c>
       <c r="R54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4237,16 +4243,16 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55">
         <v>130</v>
       </c>
       <c r="G55">
-        <v>438.328834628161</v>
+        <v>431.225976757078</v>
       </c>
       <c r="H55">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I55">
         <v>1900</v>
@@ -4276,19 +4282,19 @@
         <v>5509152</v>
       </c>
       <c r="R55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4305,16 +4311,16 @@
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F56">
         <v>130</v>
       </c>
       <c r="G56">
-        <v>438.328834628161</v>
+        <v>431.225976757078</v>
       </c>
       <c r="H56">
-        <v>7757.17328957775</v>
+        <v>7346.38067515344</v>
       </c>
       <c r="I56">
         <v>1900</v>
@@ -4344,19 +4350,19 @@
         <v>5509152</v>
       </c>
       <c r="R56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4373,16 +4379,16 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <v>120</v>
       </c>
       <c r="G57">
-        <v>429.439612252375</v>
+        <v>426.087232564315</v>
       </c>
       <c r="H57">
-        <v>7745.3138580326</v>
+        <v>7700</v>
       </c>
       <c r="I57">
         <v>1775</v>
@@ -4412,19 +4418,19 @@
         <v>5509152</v>
       </c>
       <c r="R57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4441,16 +4447,16 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F58">
         <v>120</v>
       </c>
       <c r="G58">
-        <v>429.439612252375</v>
+        <v>426.087232564315</v>
       </c>
       <c r="H58">
-        <v>7745.3138580326</v>
+        <v>7700</v>
       </c>
       <c r="I58">
         <v>1775</v>
@@ -4480,19 +4486,19 @@
         <v>5509152</v>
       </c>
       <c r="R58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4509,16 +4515,16 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F59">
         <v>120</v>
       </c>
       <c r="G59">
-        <v>429.439612252375</v>
+        <v>426.087232564315</v>
       </c>
       <c r="H59">
-        <v>7745.3138580326</v>
+        <v>7700</v>
       </c>
       <c r="I59">
         <v>1775</v>
@@ -4548,19 +4554,19 @@
         <v>5509152</v>
       </c>
       <c r="R59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4577,16 +4583,16 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F60">
         <v>120</v>
       </c>
       <c r="G60">
-        <v>429.439612252375</v>
+        <v>426.087232564315</v>
       </c>
       <c r="H60">
-        <v>7745.3138580326</v>
+        <v>7700</v>
       </c>
       <c r="I60">
         <v>1775</v>
@@ -4616,19 +4622,19 @@
         <v>5509152</v>
       </c>
       <c r="R60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4645,16 +4651,16 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F61">
         <v>120</v>
       </c>
       <c r="G61">
-        <v>429.439612252375</v>
+        <v>426.087232564315</v>
       </c>
       <c r="H61">
-        <v>7745.3138580326</v>
+        <v>7700</v>
       </c>
       <c r="I61">
         <v>1775</v>
@@ -4684,19 +4690,19 @@
         <v>5509152</v>
       </c>
       <c r="R61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4713,16 +4719,16 @@
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F62">
         <v>120</v>
       </c>
       <c r="G62">
-        <v>480.197634040613</v>
+        <v>490.40546606733</v>
       </c>
       <c r="H62">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I62">
         <v>1721</v>
@@ -4752,19 +4758,19 @@
         <v>5509152</v>
       </c>
       <c r="R62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4781,16 +4787,16 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F63">
         <v>120</v>
       </c>
       <c r="G63">
-        <v>480.197634040613</v>
+        <v>490.40546606733</v>
       </c>
       <c r="H63">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I63">
         <v>1721</v>
@@ -4820,19 +4826,19 @@
         <v>5509152</v>
       </c>
       <c r="R63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4849,16 +4855,16 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F64">
         <v>120</v>
       </c>
       <c r="G64">
-        <v>480.197634040613</v>
+        <v>490.40546606733</v>
       </c>
       <c r="H64">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I64">
         <v>1721</v>
@@ -4888,19 +4894,19 @@
         <v>5509152</v>
       </c>
       <c r="R64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4917,16 +4923,16 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F65">
         <v>120</v>
       </c>
       <c r="G65">
-        <v>480.197634040613</v>
+        <v>490.40546606733</v>
       </c>
       <c r="H65">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I65">
         <v>1721</v>
@@ -4956,19 +4962,19 @@
         <v>5509152</v>
       </c>
       <c r="R65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4985,16 +4991,16 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F66">
         <v>120</v>
       </c>
       <c r="G66">
-        <v>480.197634040613</v>
+        <v>490.40546606733</v>
       </c>
       <c r="H66">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I66">
         <v>1721</v>
@@ -5024,19 +5030,19 @@
         <v>5509152</v>
       </c>
       <c r="R66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5053,16 +5059,16 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F67">
         <v>155</v>
       </c>
       <c r="G67">
-        <v>541.600995385151</v>
+        <v>551.808827411868</v>
       </c>
       <c r="H67">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I67">
         <v>1985</v>
@@ -5092,19 +5098,19 @@
         <v>5509152</v>
       </c>
       <c r="R67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5121,16 +5127,16 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F68">
         <v>155</v>
       </c>
       <c r="G68">
-        <v>541.600995385151</v>
+        <v>551.808827411868</v>
       </c>
       <c r="H68">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I68">
         <v>1985</v>
@@ -5160,19 +5166,19 @@
         <v>5509152</v>
       </c>
       <c r="R68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5189,16 +5195,16 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69">
         <v>155</v>
       </c>
       <c r="G69">
-        <v>541.600995385151</v>
+        <v>551.808827411868</v>
       </c>
       <c r="H69">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I69">
         <v>1985</v>
@@ -5228,19 +5234,19 @@
         <v>5509152</v>
       </c>
       <c r="R69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5257,16 +5263,16 @@
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F70">
         <v>155</v>
       </c>
       <c r="G70">
-        <v>541.600995385151</v>
+        <v>551.808827411868</v>
       </c>
       <c r="H70">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I70">
         <v>1985</v>
@@ -5296,19 +5302,19 @@
         <v>5509152</v>
       </c>
       <c r="R70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V70" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5325,16 +5331,16 @@
         <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71">
         <v>155</v>
       </c>
       <c r="G71">
-        <v>541.600995385151</v>
+        <v>551.808827411868</v>
       </c>
       <c r="H71">
-        <v>8655.204592800341</v>
+        <v>10268.8697868588</v>
       </c>
       <c r="I71">
         <v>1985</v>
@@ -5364,19 +5370,19 @@
         <v>5509152</v>
       </c>
       <c r="R71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V71" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5393,13 +5399,13 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F72">
         <v>230</v>
       </c>
       <c r="G72">
-        <v>945.029078106057</v>
+        <v>955.068185636465</v>
       </c>
       <c r="H72">
         <v>17300</v>
@@ -5432,19 +5438,19 @@
         <v>5509152</v>
       </c>
       <c r="R72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5461,13 +5467,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F73">
         <v>230</v>
       </c>
       <c r="G73">
-        <v>945.029078106057</v>
+        <v>955.068185636465</v>
       </c>
       <c r="H73">
         <v>17300</v>
@@ -5500,19 +5506,19 @@
         <v>5509152</v>
       </c>
       <c r="R73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5529,13 +5535,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F74">
         <v>230</v>
       </c>
       <c r="G74">
-        <v>945.029078106057</v>
+        <v>955.068185636465</v>
       </c>
       <c r="H74">
         <v>17300</v>
@@ -5568,19 +5574,19 @@
         <v>5509152</v>
       </c>
       <c r="R74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5597,13 +5603,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F75">
         <v>230</v>
       </c>
       <c r="G75">
-        <v>945.029078106057</v>
+        <v>955.068185636465</v>
       </c>
       <c r="H75">
         <v>17300</v>
@@ -5636,19 +5642,19 @@
         <v>5509152</v>
       </c>
       <c r="R75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5665,13 +5671,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F76">
         <v>230</v>
       </c>
       <c r="G76">
-        <v>945.029078106057</v>
+        <v>955.068185636465</v>
       </c>
       <c r="H76">
         <v>17300</v>
@@ -5704,19 +5710,19 @@
         <v>5509152</v>
       </c>
       <c r="R76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V76" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5733,13 +5739,13 @@
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F77">
         <v>314</v>
       </c>
       <c r="G77">
-        <v>932.436103219675</v>
+        <v>945.6628671054</v>
       </c>
       <c r="H77">
         <v>17300</v>
@@ -5772,19 +5778,19 @@
         <v>5509152</v>
       </c>
       <c r="R77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5801,13 +5807,13 @@
         <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F78">
         <v>314</v>
       </c>
       <c r="G78">
-        <v>932.436103219675</v>
+        <v>945.6628671054</v>
       </c>
       <c r="H78">
         <v>17300</v>
@@ -5840,19 +5846,19 @@
         <v>5509152</v>
       </c>
       <c r="R78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U78" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5869,13 +5875,13 @@
         <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F79">
         <v>314</v>
       </c>
       <c r="G79">
-        <v>932.436103219675</v>
+        <v>945.6628671054</v>
       </c>
       <c r="H79">
         <v>17300</v>
@@ -5908,19 +5914,19 @@
         <v>5509152</v>
       </c>
       <c r="R79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5937,13 +5943,13 @@
         <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F80">
         <v>314</v>
       </c>
       <c r="G80">
-        <v>932.436103219675</v>
+        <v>945.6628671054</v>
       </c>
       <c r="H80">
         <v>17300</v>
@@ -5976,19 +5982,19 @@
         <v>5509152</v>
       </c>
       <c r="R80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T80" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6005,13 +6011,13 @@
         <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F81">
         <v>314</v>
       </c>
       <c r="G81">
-        <v>932.436103219675</v>
+        <v>945.6628671054</v>
       </c>
       <c r="H81">
         <v>17300</v>
@@ -6044,19 +6050,699 @@
         <v>5509152</v>
       </c>
       <c r="R81" t="s">
+        <v>53</v>
+      </c>
+      <c r="S81" t="s">
+        <v>54</v>
+      </c>
+      <c r="T81" t="s">
+        <v>55</v>
+      </c>
+      <c r="U81" t="s">
+        <v>56</v>
+      </c>
+      <c r="V81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82">
+        <v>345</v>
+      </c>
+      <c r="G82">
+        <v>958.511136478527</v>
+      </c>
+      <c r="H82">
+        <v>17300</v>
+      </c>
+      <c r="I82">
+        <v>3346</v>
+      </c>
+      <c r="J82">
+        <v>28.4552845528455</v>
+      </c>
+      <c r="K82">
+        <v>68.2926829268293</v>
+      </c>
+      <c r="L82">
+        <v>319</v>
+      </c>
+      <c r="M82">
+        <v>871.1</v>
+      </c>
+      <c r="N82">
+        <v>1030.98</v>
+      </c>
+      <c r="O82">
+        <v>1882.98</v>
+      </c>
+      <c r="P82">
+        <v>1785906</v>
+      </c>
+      <c r="Q82">
+        <v>5509152</v>
+      </c>
+      <c r="R82" t="s">
+        <v>53</v>
+      </c>
+      <c r="S82" t="s">
+        <v>54</v>
+      </c>
+      <c r="T82" t="s">
+        <v>55</v>
+      </c>
+      <c r="U82" t="s">
+        <v>56</v>
+      </c>
+      <c r="V82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83">
+        <v>345</v>
+      </c>
+      <c r="G83">
+        <v>958.511136478527</v>
+      </c>
+      <c r="H83">
+        <v>17300</v>
+      </c>
+      <c r="I83">
+        <v>3346</v>
+      </c>
+      <c r="J83">
+        <v>28.4552845528455</v>
+      </c>
+      <c r="K83">
+        <v>68.2926829268293</v>
+      </c>
+      <c r="L83">
+        <v>319</v>
+      </c>
+      <c r="M83">
+        <v>871.1</v>
+      </c>
+      <c r="N83">
+        <v>1030.98</v>
+      </c>
+      <c r="O83">
+        <v>1882.98</v>
+      </c>
+      <c r="P83">
+        <v>1785906</v>
+      </c>
+      <c r="Q83">
+        <v>5509152</v>
+      </c>
+      <c r="R83" t="s">
+        <v>53</v>
+      </c>
+      <c r="S83" t="s">
+        <v>54</v>
+      </c>
+      <c r="T83" t="s">
+        <v>55</v>
+      </c>
+      <c r="U83" t="s">
+        <v>56</v>
+      </c>
+      <c r="V83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>345</v>
+      </c>
+      <c r="G84">
+        <v>958.511136478527</v>
+      </c>
+      <c r="H84">
+        <v>17300</v>
+      </c>
+      <c r="I84">
+        <v>3346</v>
+      </c>
+      <c r="J84">
+        <v>28.4552845528455</v>
+      </c>
+      <c r="K84">
+        <v>68.2926829268293</v>
+      </c>
+      <c r="L84">
+        <v>319</v>
+      </c>
+      <c r="M84">
+        <v>871.1</v>
+      </c>
+      <c r="N84">
+        <v>1030.98</v>
+      </c>
+      <c r="O84">
+        <v>1882.98</v>
+      </c>
+      <c r="P84">
+        <v>1785906</v>
+      </c>
+      <c r="Q84">
+        <v>5509152</v>
+      </c>
+      <c r="R84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S84" t="s">
+        <v>54</v>
+      </c>
+      <c r="T84" t="s">
+        <v>55</v>
+      </c>
+      <c r="U84" t="s">
+        <v>56</v>
+      </c>
+      <c r="V84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85">
+        <v>345</v>
+      </c>
+      <c r="G85">
+        <v>958.511136478527</v>
+      </c>
+      <c r="H85">
+        <v>17300</v>
+      </c>
+      <c r="I85">
+        <v>3346</v>
+      </c>
+      <c r="J85">
+        <v>28.4552845528455</v>
+      </c>
+      <c r="K85">
+        <v>68.2926829268293</v>
+      </c>
+      <c r="L85">
+        <v>319</v>
+      </c>
+      <c r="M85">
+        <v>871.1</v>
+      </c>
+      <c r="N85">
+        <v>1030.98</v>
+      </c>
+      <c r="O85">
+        <v>1882.98</v>
+      </c>
+      <c r="P85">
+        <v>1785906</v>
+      </c>
+      <c r="Q85">
+        <v>5509152</v>
+      </c>
+      <c r="R85" t="s">
+        <v>53</v>
+      </c>
+      <c r="S85" t="s">
+        <v>54</v>
+      </c>
+      <c r="T85" t="s">
+        <v>55</v>
+      </c>
+      <c r="U85" t="s">
+        <v>56</v>
+      </c>
+      <c r="V85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86">
+        <v>345</v>
+      </c>
+      <c r="G86">
+        <v>958.511136478527</v>
+      </c>
+      <c r="H86">
+        <v>17300</v>
+      </c>
+      <c r="I86">
+        <v>3346</v>
+      </c>
+      <c r="J86">
+        <v>28.4552845528455</v>
+      </c>
+      <c r="K86">
+        <v>68.2926829268293</v>
+      </c>
+      <c r="L86">
+        <v>319</v>
+      </c>
+      <c r="M86">
+        <v>871.1</v>
+      </c>
+      <c r="N86">
+        <v>1030.98</v>
+      </c>
+      <c r="O86">
+        <v>1882.98</v>
+      </c>
+      <c r="P86">
+        <v>1785906</v>
+      </c>
+      <c r="Q86">
+        <v>5509152</v>
+      </c>
+      <c r="R86" t="s">
+        <v>53</v>
+      </c>
+      <c r="S86" t="s">
+        <v>54</v>
+      </c>
+      <c r="T86" t="s">
+        <v>55</v>
+      </c>
+      <c r="U86" t="s">
+        <v>56</v>
+      </c>
+      <c r="V86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
         <v>51</v>
       </c>
-      <c r="S81" t="s">
-        <v>52</v>
-      </c>
-      <c r="T81" t="s">
-        <v>53</v>
-      </c>
-      <c r="U81" t="s">
-        <v>54</v>
-      </c>
-      <c r="V81" t="s">
+      <c r="E87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87">
+        <v>343</v>
+      </c>
+      <c r="G87">
+        <v>913.796875</v>
+      </c>
+      <c r="H87">
+        <v>17300</v>
+      </c>
+      <c r="I87">
+        <v>3256.4</v>
+      </c>
+      <c r="J87">
+        <v>25.78125</v>
+      </c>
+      <c r="K87">
+        <v>65.625</v>
+      </c>
+      <c r="L87">
+        <v>327</v>
+      </c>
+      <c r="M87">
+        <v>771.5</v>
+      </c>
+      <c r="N87">
+        <v>879.48</v>
+      </c>
+      <c r="O87">
+        <v>1940.46</v>
+      </c>
+      <c r="P87">
+        <v>1785906</v>
+      </c>
+      <c r="Q87">
+        <v>5509152</v>
+      </c>
+      <c r="R87" t="s">
+        <v>53</v>
+      </c>
+      <c r="S87" t="s">
+        <v>54</v>
+      </c>
+      <c r="T87" t="s">
+        <v>55</v>
+      </c>
+      <c r="U87" t="s">
+        <v>56</v>
+      </c>
+      <c r="V87" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88">
+        <v>343</v>
+      </c>
+      <c r="G88">
+        <v>913.796875</v>
+      </c>
+      <c r="H88">
+        <v>17300</v>
+      </c>
+      <c r="I88">
+        <v>3256.4</v>
+      </c>
+      <c r="J88">
+        <v>25.78125</v>
+      </c>
+      <c r="K88">
+        <v>65.625</v>
+      </c>
+      <c r="L88">
+        <v>327</v>
+      </c>
+      <c r="M88">
+        <v>771.5</v>
+      </c>
+      <c r="N88">
+        <v>879.48</v>
+      </c>
+      <c r="O88">
+        <v>1940.46</v>
+      </c>
+      <c r="P88">
+        <v>1785906</v>
+      </c>
+      <c r="Q88">
+        <v>5509152</v>
+      </c>
+      <c r="R88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S88" t="s">
+        <v>54</v>
+      </c>
+      <c r="T88" t="s">
+        <v>55</v>
+      </c>
+      <c r="U88" t="s">
+        <v>56</v>
+      </c>
+      <c r="V88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89">
+        <v>343</v>
+      </c>
+      <c r="G89">
+        <v>913.796875</v>
+      </c>
+      <c r="H89">
+        <v>17300</v>
+      </c>
+      <c r="I89">
+        <v>3256.4</v>
+      </c>
+      <c r="J89">
+        <v>25.78125</v>
+      </c>
+      <c r="K89">
+        <v>65.625</v>
+      </c>
+      <c r="L89">
+        <v>327</v>
+      </c>
+      <c r="M89">
+        <v>771.5</v>
+      </c>
+      <c r="N89">
+        <v>879.48</v>
+      </c>
+      <c r="O89">
+        <v>1940.46</v>
+      </c>
+      <c r="P89">
+        <v>1785906</v>
+      </c>
+      <c r="Q89">
+        <v>5509152</v>
+      </c>
+      <c r="R89" t="s">
+        <v>53</v>
+      </c>
+      <c r="S89" t="s">
+        <v>54</v>
+      </c>
+      <c r="T89" t="s">
+        <v>55</v>
+      </c>
+      <c r="U89" t="s">
+        <v>56</v>
+      </c>
+      <c r="V89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90">
+        <v>343</v>
+      </c>
+      <c r="G90">
+        <v>913.796875</v>
+      </c>
+      <c r="H90">
+        <v>17300</v>
+      </c>
+      <c r="I90">
+        <v>3256.4</v>
+      </c>
+      <c r="J90">
+        <v>25.78125</v>
+      </c>
+      <c r="K90">
+        <v>65.625</v>
+      </c>
+      <c r="L90">
+        <v>327</v>
+      </c>
+      <c r="M90">
+        <v>771.5</v>
+      </c>
+      <c r="N90">
+        <v>879.48</v>
+      </c>
+      <c r="O90">
+        <v>1940.46</v>
+      </c>
+      <c r="P90">
+        <v>1785906</v>
+      </c>
+      <c r="Q90">
+        <v>5509152</v>
+      </c>
+      <c r="R90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S90" t="s">
+        <v>54</v>
+      </c>
+      <c r="T90" t="s">
+        <v>55</v>
+      </c>
+      <c r="U90" t="s">
+        <v>56</v>
+      </c>
+      <c r="V90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91">
+        <v>343</v>
+      </c>
+      <c r="G91">
+        <v>913.796875</v>
+      </c>
+      <c r="H91">
+        <v>17300</v>
+      </c>
+      <c r="I91">
+        <v>3256.4</v>
+      </c>
+      <c r="J91">
+        <v>25.78125</v>
+      </c>
+      <c r="K91">
+        <v>65.625</v>
+      </c>
+      <c r="L91">
+        <v>327</v>
+      </c>
+      <c r="M91">
+        <v>771.5</v>
+      </c>
+      <c r="N91">
+        <v>879.48</v>
+      </c>
+      <c r="O91">
+        <v>1940.46</v>
+      </c>
+      <c r="P91">
+        <v>1785906</v>
+      </c>
+      <c r="Q91">
+        <v>5509152</v>
+      </c>
+      <c r="R91" t="s">
+        <v>53</v>
+      </c>
+      <c r="S91" t="s">
+        <v>54</v>
+      </c>
+      <c r="T91" t="s">
+        <v>55</v>
+      </c>
+      <c r="U91" t="s">
+        <v>56</v>
+      </c>
+      <c r="V91" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
